--- a/trash.xlsx
+++ b/trash.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H270"/>
+  <dimension ref="A1:H291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9083,6 +9083,678 @@
         </is>
       </c>
     </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>10</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0</v>
+      </c>
+      <c r="C271" t="n">
+        <v>4</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>metal</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>little</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>6</v>
+      </c>
+      <c r="G271" t="n">
+        <v>3</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>10</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+      <c r="C272" t="n">
+        <v>4</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>metal</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>huge</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>5</v>
+      </c>
+      <c r="G272" t="n">
+        <v>3</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>10</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+      <c r="C273" t="n">
+        <v>8</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>2</v>
+      </c>
+      <c r="G273" t="n">
+        <v>3</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>15</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0</v>
+      </c>
+      <c r="C274" t="n">
+        <v>5</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>paper</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>huge</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>3</v>
+      </c>
+      <c r="G274" t="n">
+        <v>5</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>40</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0</v>
+      </c>
+      <c r="C275" t="n">
+        <v>7</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F275" t="n">
+        <v>2</v>
+      </c>
+      <c r="G275" t="n">
+        <v>9</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>pick up</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>10</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+      <c r="C276" t="n">
+        <v>4</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>5</v>
+      </c>
+      <c r="G276" t="n">
+        <v>1</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>10</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+      <c r="C277" t="n">
+        <v>9</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>huge</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>10</v>
+      </c>
+      <c r="G277" t="n">
+        <v>1</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>20</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0</v>
+      </c>
+      <c r="C278" t="n">
+        <v>6</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>huge</t>
+        </is>
+      </c>
+      <c r="F278" t="n">
+        <v>9</v>
+      </c>
+      <c r="G278" t="n">
+        <v>7</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>pick up</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>15</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>huge</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
+        <v>2</v>
+      </c>
+      <c r="G279" t="n">
+        <v>9</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>pick up</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>10</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>paper</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>huge</t>
+        </is>
+      </c>
+      <c r="F280" t="n">
+        <v>8</v>
+      </c>
+      <c r="G280" t="n">
+        <v>3</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>pick up</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>30</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+      <c r="C281" t="n">
+        <v>5</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>metal</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>huge</t>
+        </is>
+      </c>
+      <c r="F281" t="n">
+        <v>10</v>
+      </c>
+      <c r="G281" t="n">
+        <v>2</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>pick up</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>40</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>wood</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F282" t="n">
+        <v>2</v>
+      </c>
+      <c r="G282" t="n">
+        <v>6</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>pick up</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>20</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+      <c r="C283" t="n">
+        <v>6</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F283" t="n">
+        <v>4</v>
+      </c>
+      <c r="G283" t="n">
+        <v>5</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>30</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0</v>
+      </c>
+      <c r="C284" t="n">
+        <v>4</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>metal</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>huge</t>
+        </is>
+      </c>
+      <c r="F284" t="n">
+        <v>7</v>
+      </c>
+      <c r="G284" t="n">
+        <v>3</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>pick up</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>10</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0</v>
+      </c>
+      <c r="C285" t="n">
+        <v>7</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>paper</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>little</t>
+        </is>
+      </c>
+      <c r="F285" t="n">
+        <v>4</v>
+      </c>
+      <c r="G285" t="n">
+        <v>8</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>pick up</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>15</v>
+      </c>
+      <c r="B286" t="n">
+        <v>1</v>
+      </c>
+      <c r="C286" t="n">
+        <v>8</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F286" t="n">
+        <v>5</v>
+      </c>
+      <c r="G286" t="n">
+        <v>3</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>30</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0</v>
+      </c>
+      <c r="C287" t="n">
+        <v>4</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>paper</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="F287" t="n">
+        <v>7</v>
+      </c>
+      <c r="G287" t="n">
+        <v>6</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>pick up</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>10</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0</v>
+      </c>
+      <c r="C288" t="n">
+        <v>2</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="F288" t="n">
+        <v>8</v>
+      </c>
+      <c r="G288" t="n">
+        <v>6</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>pick up</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>30</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0</v>
+      </c>
+      <c r="C289" t="n">
+        <v>2</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>wood</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>huge</t>
+        </is>
+      </c>
+      <c r="F289" t="n">
+        <v>10</v>
+      </c>
+      <c r="G289" t="n">
+        <v>7</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>pick up</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>20</v>
+      </c>
+      <c r="B290" t="n">
+        <v>1</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>metal</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F290" t="n">
+        <v>1</v>
+      </c>
+      <c r="G290" t="n">
+        <v>7</v>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>pick up</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>15</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0</v>
+      </c>
+      <c r="C291" t="n">
+        <v>6</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="F291" t="n">
+        <v>4</v>
+      </c>
+      <c r="G291" t="n">
+        <v>6</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>leave</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
